--- a/timetabling_GA/results/HK4_CT01_2025/LichHocKy_HK4_CT01_2025.xlsx
+++ b/timetabling_GA/results/HK4_CT01_2025/LichHocKy_HK4_CT01_2025.xlsx
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,44 +118,11 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -184,7 +151,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -660,16 +626,16 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
@@ -677,7 +643,7 @@
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH008
+          <t>MH007
 (Practice)
 Room: TH2
 Lecturer: GV003</t>
@@ -689,7 +655,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -709,7 +675,7 @@
         <is>
           <t>MH007
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
@@ -718,30 +684,30 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11"/>
@@ -762,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,22 +843,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -906,25 +872,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -945,18 +911,47 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -974,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,22 +1084,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1118,25 +1113,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -1157,18 +1152,47 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1186,7 +1210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1301,22 +1325,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1330,25 +1354,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -1369,18 +1393,47 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1398,7 +1451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,22 +1566,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1542,25 +1595,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -1581,18 +1634,47 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1610,7 +1692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,22 +1807,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1754,25 +1836,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -1793,18 +1875,47 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1822,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,22 +2048,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1966,25 +2077,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -2005,18 +2116,47 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2149,22 +2289,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2173,7 +2313,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2184,16 +2324,16 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -2332,31 +2472,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2367,15 +2514,15 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2383,7 +2530,11 @@
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -2396,7 +2547,34 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>MH008
 (Practice)
@@ -2404,43 +2582,16 @@
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -2458,33 +2609,25 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH008
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -2613,31 +2756,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2648,15 +2798,15 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2664,7 +2814,11 @@
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -2677,7 +2831,34 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>MH008
 (Practice)
@@ -2685,43 +2866,16 @@
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -2739,33 +2893,25 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH008
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -2894,31 +3040,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2929,15 +3082,15 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2945,7 +3098,11 @@
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -2958,7 +3115,34 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>MH008
 (Practice)
@@ -2966,43 +3150,16 @@
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -3020,33 +3177,25 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH008
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -3175,31 +3324,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3210,15 +3366,15 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -3226,7 +3382,11 @@
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3239,7 +3399,34 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>MH008
 (Practice)
@@ -3247,43 +3434,16 @@
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -3301,33 +3461,25 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH008
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -3336,6 +3488,283 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 6 TIMETABLE (17/08/2026 - 23/08/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+17/08</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+18/08</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+19/08</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+20/08</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+21/08</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+22/08</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+23/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3385,7 +3814,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 6 TIMETABLE (17/08/2026 - 23/08/2026)</t>
+          <t>WEEK 7 TIMETABLE (24/08/2026 - 30/08/2026)</t>
         </is>
       </c>
     </row>
@@ -3408,43 +3837,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-17/08</t>
+24/08</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-18/08</t>
+25/08</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-19/08</t>
+26/08</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-20/08</t>
+27/08</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-21/08</t>
+28/08</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-22/08</t>
+29/08</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-23/08</t>
+30/08</t>
         </is>
       </c>
     </row>
@@ -3456,22 +3885,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3485,25 +3914,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3521,25 +3950,18 @@
         <v>35</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3557,15 +3979,15 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>MH008
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
@@ -3583,13 +4005,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3633,7 +4055,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 7 TIMETABLE (24/08/2026 - 30/08/2026)</t>
+          <t>WEEK 8 TIMETABLE (31/08/2026 - 06/09/2026)</t>
         </is>
       </c>
     </row>
@@ -3656,43 +4078,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-24/08</t>
+31/08</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-25/08</t>
+01/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-26/08</t>
+02/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-27/08</t>
+03/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-28/08</t>
+04/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-29/08</t>
+05/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-30/08</t>
+06/09</t>
         </is>
       </c>
     </row>
@@ -3704,22 +4126,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3733,25 +4155,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3772,18 +4194,47 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3795,13 +4246,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3845,7 +4296,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 8 TIMETABLE (31/08/2026 - 06/09/2026)</t>
+          <t>WEEK 9 TIMETABLE (07/09/2026 - 13/09/2026)</t>
         </is>
       </c>
     </row>
@@ -3868,43 +4319,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-31/08</t>
+07/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-01/09</t>
+08/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-02/09</t>
+09/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-03/09</t>
+10/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-04/09</t>
+11/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-05/09</t>
+12/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-06/09</t>
+13/09</t>
         </is>
       </c>
     </row>
@@ -3916,22 +4367,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3945,25 +4396,25 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3984,159 +4435,34 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT3
 Lecturer: GV003</t>
         </is>
       </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 9 TIMETABLE (07/09/2026 - 13/09/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-07/09</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-08/09</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-09/09</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-10/09</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-11/09</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-12/09</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-13/09</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>MH008
 (Theory)
@@ -4144,70 +4470,12 @@
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT3
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
